--- a/SEARCHING_PREPROCESSING/Searching_Statistics.xlsx
+++ b/SEARCHING_PREPROCESSING/Searching_Statistics.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://phxonline-my.sharepoint.com/personal/pranavphanindrasai_manepalli_zelis_com/Documents/Documents/Learning/py_vs_rust/Presentation - 1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://phxonline-my.sharepoint.com/personal/pranavphanindrasai_manepalli_zelis_com/Documents/Documents/Tasks/RUST_VS_PYTHON/SEARCHING_PREPROCESSING/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="247" documentId="11_F25DC773A252ABDACC10480BE9D864D45ADE5918" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{817F52C1-A89A-493D-B7D7-B9F5509A4361}"/>
+  <xr:revisionPtr revIDLastSave="256" documentId="11_F25DC773A252ABDACC10480BE9D864D45ADE5918" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B8DCF892-F28A-4546-B84C-DDB52F92F517}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="1725" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="23430" yWindow="3750" windowWidth="9600" windowHeight="5450" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Time" sheetId="1" r:id="rId1"/>
@@ -984,6 +984,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Search Algorithms</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1043,6 +1098,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Memory(MB)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1399,6 +1509,66 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Array</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Size</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1464,6 +1634,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time (Sec)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2739,10 +2964,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3438,8 +3659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00D1DE4C-4AC7-4675-8F1E-AE0A41B94C68}">
   <dimension ref="B2:N38"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34:D38"/>
+    <sheetView topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4170,11 +4391,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="L17:N17"/>
-    <mergeCell ref="C16:N16"/>
     <mergeCell ref="F3:H3"/>
     <mergeCell ref="I3:K3"/>
     <mergeCell ref="L3:N3"/>
@@ -4183,6 +4399,11 @@
     <mergeCell ref="G14:H14"/>
     <mergeCell ref="I14:J14"/>
     <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="C16:N16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4193,8 +4414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5C1CF1C-D844-4235-929A-98A1E7A3778A}">
   <dimension ref="B1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
